--- a/201025_Results_Cali/output/summary/merged_mod2.xlsx
+++ b/201025_Results_Cali/output/summary/merged_mod2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5516,7 +5516,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         </is>
       </c>
       <c r="AC33">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="AG33">
-        <v>0.0692</v>
+        <v>0.0563</v>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="AC34">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         </is>
       </c>
       <c r="AG34">
-        <v>0.0692</v>
+        <v>0.0563</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="AC35">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="AG35">
-        <v>0.0692</v>
+        <v>0.0563</v>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         </is>
       </c>
       <c r="AC36">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="AG36">
-        <v>0.0692</v>
+        <v>0.0563</v>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
@@ -6147,30 +6147,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>170 (80.2%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>192 (86.9%)</t>
         </is>
       </c>
       <c r="F37">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>61 (67.8%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>141 (90.4%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>160 (85.6%)</t>
         </is>
       </c>
       <c r="J37">
@@ -6183,27 +6183,27 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (100.0%)</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>136 (100.0%)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>66 (100.0%)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (100.0%)</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>103 (100.0%)</t>
         </is>
       </c>
       <c r="Q37">
@@ -6211,27 +6211,27 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>76 (93.8%)</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>172 (87.8%)</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>30 (51.7%)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>83 (85.6%)</t>
         </is>
       </c>
       <c r="W37">
@@ -6239,49 +6239,49 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>45 (83.3%)</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>16 (94.1%)</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>1 (0.3%)</t>
+          <t>250 (83.1%)</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (69.2%)</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>42 (87.5%)</t>
         </is>
       </c>
       <c r="AC37">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>118 (86.8%)</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>125 (80.1%)</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>119 (84.4%)</t>
         </is>
       </c>
       <c r="AG37">
-        <v>0.0692</v>
+        <v>0.0563</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="AC38">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         </is>
       </c>
       <c r="AG38">
-        <v>0.0692</v>
+        <v>0.0563</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
@@ -6462,35 +6462,35 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>169 (79.7%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>192 (86.9%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F39">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>61 (67.8%)</t>
+          <t>3 (3.3%)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>140 (89.7%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>160 (85.6%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="J39">
@@ -6498,32 +6498,32 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (9.7%)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>136 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>66 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>7 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>103 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Q39">
@@ -6531,27 +6531,27 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>76 (93.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>172 (87.8%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30 (51.7%)</t>
+          <t>3 (5.2%)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>82 (84.5%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="W39">
@@ -6559,49 +6559,49 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>45 (83.3%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>16 (94.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>249 (82.7%)</t>
+          <t>5 (1.7%)</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>9 (69.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>42 (87.5%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC39">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>118 (86.8%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>124 (79.5%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>119 (84.4%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="AG39">
-        <v>0.0692</v>
+        <v>0.0563</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
@@ -6612,53 +6612,53 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_auto_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de automóviles (agregado)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>24 (11.3%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>25 (11.3%)</t>
         </is>
       </c>
       <c r="F40">
-        <v>0.09959999999999999</v>
+        <v>0.0008</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3 (3.3%)</t>
+          <t>8 (8.9%)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>23 (14.7%)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>18 (9.6%)</t>
         </is>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.5119</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>7 (9.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (36.0%)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6691,12 +6691,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (4.9%)</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>27 (13.8%)</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -6711,11 +6711,11 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>15 (15.5%)</t>
         </is>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>0.083</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -6724,12 +6724,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>5 (1.7%)</t>
+          <t>40 (13.3%)</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -6739,29 +6739,29 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="AC40">
-        <v>0.9983</v>
+        <v>0.0227</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>24 (17.6%)</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>18 (11.5%)</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>7 (5.0%)</t>
         </is>
       </c>
       <c r="AG40">
-        <v>0.0692</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
@@ -6782,39 +6782,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>24 (11.4%)</t>
+          <t>17 (8.0%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>25 (11.4%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F41">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>8 (8.9%)</t>
+          <t>6 (6.7%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>23 (14.8%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>18 (9.7%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="J41">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>49 (36.0%)</t>
+          <t>20 (14.7%)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6851,12 +6851,12 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>4 (5.1%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>27 (13.8%)</t>
+          <t>6 (3.1%)</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>3 (5.2%)</t>
+          <t>4 (6.9%)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>15 (15.5%)</t>
+          <t>7 (7.2%)</t>
         </is>
       </c>
       <c r="W41">
-        <v>0.1012</v>
+        <v>0.083</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>40 (13.4%)</t>
+          <t>17 (5.6%)</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -6899,25 +6899,25 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC41">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>24 (17.6%)</t>
+          <t>10 (7.4%)</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>18 (11.7%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>7 (5.0%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="AG41">
@@ -6942,30 +6942,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17 (8.1%)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="F42">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>6 (6.7%)</t>
+          <t>3 (3.3%)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6 (3.9%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="J42">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>20 (14.7%)</t>
+          <t>18 (13.2%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7011,12 +7011,12 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>3 (3.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>6 (3.1%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -7026,16 +7026,16 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>4 (6.9%)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>7 (7.2%)</t>
+          <t>8 (8.2%)</t>
         </is>
       </c>
       <c r="W42">
-        <v>0.1012</v>
+        <v>0.083</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -7044,12 +7044,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>17 (5.7%)</t>
+          <t>17 (5.6%)</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -7063,21 +7063,21 @@
         </is>
       </c>
       <c r="AC42">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>10 (7.4%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>7 (4.5%)</t>
+          <t>9 (5.8%)</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="AG42">
@@ -7102,39 +7102,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>Eléctrica / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12 (5.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F43">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3 (3.3%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7 (4.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J43">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>18 (13.2%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>8 (4.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -7186,20 +7186,20 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2 (3.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>8 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W43">
-        <v>0.1012</v>
+        <v>0.083</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>17 (5.7%)</t>
+          <t>1 (0.3%)</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -7223,21 +7223,21 @@
         </is>
       </c>
       <c r="AC43">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>9 (5.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AG43">
@@ -7262,68 +7262,68 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eléctrica / No aplica</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>135 (63.7%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>162 (73.3%)</t>
         </is>
       </c>
       <c r="F44">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>64 (71.1%)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>104 (66.7%)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>129 (69.0%)</t>
         </is>
       </c>
       <c r="J44">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>72 (100.0%)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (100.0%)</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>66 (100.0%)</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (100.0%)</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>103 (100.0%)</t>
         </is>
       </c>
       <c r="Q44">
@@ -7331,73 +7331,73 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>68 (84.0%)</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>134 (68.4%)</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>44 (75.9%)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>50 (51.5%)</t>
         </is>
       </c>
       <c r="W44">
-        <v>0.1012</v>
+        <v>0.083</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (87.0%)</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (64.7%)</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>1 (0.3%)</t>
+          <t>189 (62.8%)</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (69.2%)</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>41 (85.4%)</t>
         </is>
       </c>
       <c r="AC44">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>75 (55.1%)</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>97 (62.2%)</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>125 (88.7%)</t>
         </is>
       </c>
       <c r="AG44">
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         </is>
       </c>
       <c r="J45">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         </is>
       </c>
       <c r="W45">
-        <v>0.1012</v>
+        <v>0.083</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="AC45">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -7592,11 +7592,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>17 (7.8%)</t>
+          <t>17 (7.7%)</t>
         </is>
       </c>
       <c r="F46">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -7605,16 +7605,16 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>13 (8.4%)</t>
+          <t>13 (8.3%)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20 (10.8%)</t>
+          <t>20 (10.7%)</t>
         </is>
       </c>
       <c r="J46">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>3 (3.8%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -7675,7 +7675,7 @@
         </is>
       </c>
       <c r="W46">
-        <v>0.1012</v>
+        <v>0.083</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>32 (10.7%)</t>
+          <t>32 (10.6%)</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="AC46">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -7712,12 +7712,12 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>20 (13.0%)</t>
+          <t>20 (12.8%)</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>4 (2.8%)</t>
         </is>
       </c>
       <c r="AG46">
@@ -7742,68 +7742,68 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>134 (63.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>160 (73.1%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F47">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>64 (71.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>103 (66.5%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>127 (68.6%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="J47">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>72 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>66 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>4 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>103 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Q47">
@@ -7811,73 +7811,73 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>65 (83.3%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>134 (68.4%)</t>
+          <t>3 (1.5%)</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>44 (75.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>50 (51.5%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="W47">
-        <v>0.1012</v>
+        <v>0.083</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>47 (87.0%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>11 (64.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>187 (62.5%)</t>
+          <t>4 (1.3%)</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>9 (69.2%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>40 (85.1%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC47">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>75 (55.1%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>95 (61.7%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>124 (88.6%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="AG47">
@@ -7892,156 +7892,138 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_camion_agregado</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de camiones (futuro)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>212 (100.0%)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8 (3.7%)</t>
-        </is>
-      </c>
-      <c r="F48">
-        <v>0.0009</v>
+          <t>221 (100.0%)</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>90 (100.0%)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>156 (100.0%)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4 (2.2%)</t>
-        </is>
-      </c>
-      <c r="J48">
-        <v>0.5129</v>
+          <t>187 (100.0%)</t>
+        </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>72 (100.0%)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (100.0%)</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>136 (100.0%)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>66 (100.0%)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (100.0%)</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="Q48">
-        <v>0</v>
+          <t>103 (100.0%)</t>
+        </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>3 (3.8%)</t>
+          <t>81 (100.0%)</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>3 (1.5%)</t>
+          <t>196 (100.0%)</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>58 (100.0%)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
-        </is>
-      </c>
-      <c r="W48">
-        <v>0.1012</v>
+          <t>97 (100.0%)</t>
+        </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>54 (100.0%)</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>17 (100.0%)</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>4 (1.3%)</t>
+          <t>301 (100.0%)</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>13 (100.0%)</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
-        </is>
-      </c>
-      <c r="AC48">
-        <v>0.0236</v>
+          <t>48 (100.0%)</t>
+        </is>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>136 (100.0%)</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>156 (100.0%)</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
-        </is>
-      </c>
-      <c r="AG48">
-        <v>0</v>
+          <t>141 (100.0%)</t>
+        </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
@@ -8052,138 +8034,156 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>modelo_vehiculo_agregado</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Modelo del vehículo (agrupado)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>2005 - 2010</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>212 (100.0%)</t>
+          <t>10 (4.7%)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>221 (100.0%)</t>
-        </is>
+          <t>5 (2.3%)</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>0.0003</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>90 (100.0%)</t>
+          <t>2 (2.2%)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>156 (100.0%)</t>
+          <t>8 (5.1%)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>187 (100.0%)</t>
-        </is>
+          <t>5 (2.7%)</t>
+        </is>
+      </c>
+      <c r="J49">
+        <v>0.0607</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>72 (100.0%)</t>
+          <t>9 (12.5%)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>136 (100.0%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>66 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>7 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>103 (100.0%)</t>
-        </is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="Q49">
+        <v>0</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>81 (100.0%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>196 (100.0%)</t>
+          <t>9 (4.6%)</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>58 (100.0%)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>97 (100.0%)</t>
-        </is>
+          <t>1 (1.0%)</t>
+        </is>
+      </c>
+      <c r="W49">
+        <v>0</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>54 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>17 (100.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>301 (100.0%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>13 (100.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>48 (100.0%)</t>
-        </is>
+          <t>2 (4.2%)</t>
+        </is>
+      </c>
+      <c r="AC49">
+        <v>0.0051</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>136 (100.0%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>156 (100.0%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>141 (100.0%)</t>
-        </is>
+          <t>3 (2.1%)</t>
+        </is>
+      </c>
+      <c r="AG49">
+        <v>0</v>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
@@ -8204,17 +8204,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2005 - 2010</t>
+          <t>2011 - 2015</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10 (4.7%)</t>
+          <t>27 (12.7%)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>9 (4.1%)</t>
         </is>
       </c>
       <c r="F50">
@@ -8222,17 +8222,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>14 (15.6%)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>8 (5.1%)</t>
+          <t>9 (5.8%)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>13 (7.0%)</t>
         </is>
       </c>
       <c r="J50">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>9 (12.5%)</t>
+          <t>13 (18.1%)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>6 (4.4%)</t>
+          <t>23 (16.9%)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8273,12 +8273,12 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>4 (4.9%)</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>9 (4.6%)</t>
+          <t>17 (8.7%)</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -8288,12 +8288,12 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2 (3.4%)</t>
+          <t>6 (10.3%)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>9 (9.3%)</t>
         </is>
       </c>
       <c r="W50">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (7.4%)</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>27 (9.0%)</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="AC50">
@@ -8329,17 +8329,17 @@
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>6 (4.4%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>6 (3.8%)</t>
+          <t>17 (10.9%)</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>10 (7.1%)</t>
         </is>
       </c>
       <c r="AG50">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2011 - 2015</t>
+          <t>2016 - 2020</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>27 (12.7%)</t>
+          <t>30 (14.2%)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9 (4.1%)</t>
+          <t>25 (11.3%)</t>
         </is>
       </c>
       <c r="F51">
@@ -8382,17 +8382,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>14 (15.6%)</t>
+          <t>17 (18.9%)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>9 (5.8%)</t>
+          <t>14 (9.0%)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>13 (7.0%)</t>
+          <t>24 (12.8%)</t>
         </is>
       </c>
       <c r="J51">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>13 (18.1%)</t>
+          <t>19 (26.4%)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23 (16.9%)</t>
+          <t>36 (26.5%)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17 (8.7%)</t>
+          <t>21 (10.7%)</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -8448,12 +8448,12 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>6 (10.3%)</t>
+          <t>11 (19.0%)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>9 (9.3%)</t>
+          <t>19 (19.6%)</t>
         </is>
       </c>
       <c r="W51">
@@ -8466,22 +8466,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>27 (9.0%)</t>
+          <t>46 (15.3%)</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC51">
@@ -8489,17 +8489,17 @@
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>9 (6.6%)</t>
+          <t>16 (11.8%)</t>
         </is>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>17 (10.9%)</t>
+          <t>28 (17.9%)</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>10 (7.1%)</t>
+          <t>11 (7.8%)</t>
         </is>
       </c>
       <c r="AG51">
@@ -8524,17 +8524,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2016 - 2020</t>
+          <t>2021 o más reciente</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>30 (14.2%)</t>
+          <t>38 (17.9%)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>25 (11.3%)</t>
+          <t>37 (16.7%)</t>
         </is>
       </c>
       <c r="F52">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>14 (9.0%)</t>
+          <t>29 (18.6%)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>24 (12.8%)</t>
+          <t>29 (15.5%)</t>
         </is>
       </c>
       <c r="J52">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>19 (26.4%)</t>
+          <t>17 (23.6%)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>36 (26.5%)</t>
+          <t>58 (42.6%)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -8593,12 +8593,12 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>4 (4.9%)</t>
+          <t>2 (2.5%)</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>21 (10.7%)</t>
+          <t>28 (14.3%)</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -8608,12 +8608,12 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>11 (19.0%)</t>
+          <t>19 (32.8%)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>19 (19.6%)</t>
+          <t>26 (26.8%)</t>
         </is>
       </c>
       <c r="W52">
@@ -8621,27 +8621,27 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>4 (7.4%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>46 (15.3%)</t>
+          <t>65 (21.6%)</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>4 (8.3%)</t>
         </is>
       </c>
       <c r="AC52">
@@ -8649,17 +8649,17 @@
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>16 (11.8%)</t>
+          <t>42 (30.9%)</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>28 (17.9%)</t>
+          <t>31 (19.9%)</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>11 (7.8%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="AG52">
@@ -8684,17 +8684,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021 o más reciente</t>
+          <t>Anterior a 2005</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>38 (17.9%)</t>
+          <t>10 (4.7%)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>37 (16.7%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="F53">
@@ -8702,17 +8702,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>17 (18.9%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>29 (18.6%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>29 (15.5%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="J53">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17 (23.6%)</t>
+          <t>7 (9.7%)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>58 (42.6%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>28 (14.3%)</t>
+          <t>6 (3.1%)</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -8768,12 +8768,12 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>19 (32.8%)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>26 (26.8%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="W53">
@@ -8781,27 +8781,27 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>65 (21.6%)</t>
+          <t>6 (2.0%)</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC53">
@@ -8809,17 +8809,17 @@
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>42 (30.9%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>31 (19.9%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>7 (5.0%)</t>
         </is>
       </c>
       <c r="AG53">
@@ -8844,17 +8844,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Anterior a 2005</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10 (4.7%)</t>
+          <t>92 (43.4%)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>133 (60.2%)</t>
         </is>
       </c>
       <c r="F54">
@@ -8862,17 +8862,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>35 (38.9%)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>88 (56.4%)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>102 (54.5%)</t>
         </is>
       </c>
       <c r="J54">
@@ -8880,32 +8880,32 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>7 (9.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (100.0%)</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>5 (3.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>66 (100.0%)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (100.0%)</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>103 (100.0%)</t>
         </is>
       </c>
       <c r="Q54">
@@ -8913,27 +8913,27 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>2 (2.5%)</t>
+          <t>63 (77.8%)</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>6 (3.1%)</t>
+          <t>110 (56.1%)</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2 (3.4%)</t>
+          <t>16 (27.6%)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>35 (36.1%)</t>
         </is>
       </c>
       <c r="W54">
@@ -8941,27 +8941,27 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>38 (70.4%)</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (58.8%)</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>6 (2.0%)</t>
+          <t>137 (45.5%)</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>5 (38.5%)</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>35 (72.9%)</t>
         </is>
       </c>
       <c r="AC54">
@@ -8969,17 +8969,17 @@
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>57 (41.9%)</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>65 (41.7%)</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>7 (5.0%)</t>
+          <t>103 (73.0%)</t>
         </is>
       </c>
       <c r="AG54">
@@ -9004,17 +9004,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>92 (43.4%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>133 (60.2%)</t>
+          <t>10 (4.5%)</t>
         </is>
       </c>
       <c r="F55">
@@ -9022,17 +9022,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>35 (38.9%)</t>
+          <t>4 (4.4%)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>88 (56.4%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>102 (54.5%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="J55">
@@ -9040,32 +9040,32 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (9.7%)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>66 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>7 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>103 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Q55">
@@ -9073,27 +9073,27 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>63 (77.8%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>110 (56.1%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16 (27.6%)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>35 (36.1%)</t>
+          <t>5 (5.2%)</t>
         </is>
       </c>
       <c r="W55">
@@ -9101,27 +9101,27 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>38 (70.4%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>10 (58.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>137 (45.5%)</t>
+          <t>9 (3.0%)</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>5 (38.5%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>35 (72.9%)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="AC55">
@@ -9129,17 +9129,17 @@
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>57 (41.9%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>65 (41.7%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>103 (73.0%)</t>
+          <t>5 (3.5%)</t>
         </is>
       </c>
       <c r="AG55">
@@ -9154,63 +9154,63 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>modelo_vehiculo_agregado</t>
+          <t>p19comuna</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modelo del vehículo (agrupado)</t>
+          <t>Comuna donde vive</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Comuna 1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>6 (2.8%)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10 (4.5%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F56">
-        <v>0.0003</v>
+        <v>0.9536</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4 (4.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>10 (6.4%)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="J56">
-        <v>0.0607</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>7 (9.7%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -9225,20 +9225,20 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.9%)</t>
         </is>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>2 (2.5%)</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>5 (2.6%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -9248,12 +9248,12 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>2 (3.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>5 (5.2%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="W56">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -9271,12 +9271,12 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>9 (3.0%)</t>
+          <t>8 (2.7%)</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="AC56">
-        <v>0.0051</v>
+        <v>0.0359</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -9294,16 +9294,16 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>6 (3.8%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>5 (3.5%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>0.2276</v>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
@@ -9324,17 +9324,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Comuna 1</t>
+          <t>Comuna 10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6 (2.8%)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F57">
@@ -9347,12 +9347,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10 (6.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>20 (10.7%)</t>
         </is>
       </c>
       <c r="J57">
@@ -9365,17 +9365,17 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>5 (3.7%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (12.1%)</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>3 (2.9%)</t>
+          <t>4 (3.9%)</t>
         </is>
       </c>
       <c r="Q57">
@@ -9393,12 +9393,12 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>2 (2.5%)</t>
+          <t>4 (4.9%)</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>8 (4.1%)</t>
+          <t>12 (6.1%)</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="W57">
@@ -9421,17 +9421,17 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>6 (11.1%)</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>8 (2.7%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -9449,17 +9449,17 @@
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>7 (5.1%)</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>10 (7.1%)</t>
         </is>
       </c>
       <c r="AG57">
@@ -9484,17 +9484,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Comuna 10</t>
+          <t>Comuna 11</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12 (5.7%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>8 (3.6%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="F58">
@@ -9507,12 +9507,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>20 (10.7%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="J58">
@@ -9520,32 +9520,32 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>8 (12.1%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>4 (3.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Q58">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>4 (4.9%)</t>
+          <t>2 (2.5%)</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12 (6.1%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -9581,27 +9581,27 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>6 (11.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>10 (3.3%)</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC58">
@@ -9609,17 +9609,17 @@
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>7 (5.1%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>10 (7.1%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="AG58">
@@ -9644,17 +9644,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Comuna 11</t>
+          <t>Comuna 12</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>6 (2.8%)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>4 (1.8%)</t>
         </is>
       </c>
       <c r="F59">
@@ -9667,12 +9667,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="J59">
@@ -9680,17 +9680,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>6 (4.4%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -9700,12 +9700,12 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="Q59">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>2 (2.5%)</t>
+          <t>4 (4.9%)</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -9728,12 +9728,12 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.7%)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>4 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W59">
@@ -9751,17 +9751,17 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10 (3.3%)</t>
+          <t>7 (2.3%)</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC59">
@@ -9769,17 +9769,17 @@
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>4 (2.8%)</t>
         </is>
       </c>
       <c r="AG59">
@@ -9804,17 +9804,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Comuna 12</t>
+          <t>Comuna 13</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6 (2.8%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4 (1.8%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F60">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>17 (10.9%)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="J60">
@@ -9840,7 +9840,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -9855,17 +9855,17 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>5 (7.6%)</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>6 (5.8%)</t>
         </is>
       </c>
       <c r="Q60">
@@ -9873,12 +9873,12 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>4 (4.9%)</t>
+          <t>6 (7.4%)</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>5 (2.6%)</t>
+          <t>6 (3.1%)</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (6.2%)</t>
         </is>
       </c>
       <c r="W60">
@@ -9901,27 +9901,27 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (9.3%)</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>7 (2.3%)</t>
+          <t>10 (3.3%)</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="AC60">
@@ -9929,17 +9929,17 @@
       </c>
       <c r="AD60" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>6 (3.8%)</t>
+          <t>8 (5.1%)</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>4 (2.8%)</t>
+          <t>8 (5.7%)</t>
         </is>
       </c>
       <c r="AG60">
@@ -9964,17 +9964,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Comuna 13</t>
+          <t>Comuna 14</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>7 (3.3%)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8 (3.6%)</t>
+          <t>13 (5.9%)</t>
         </is>
       </c>
       <c r="F61">
@@ -9987,12 +9987,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>17 (10.9%)</t>
+          <t>20 (12.8%)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J61">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -10015,17 +10015,17 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>5 (7.6%)</t>
+          <t>3 (4.5%)</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>6 (5.8%)</t>
+          <t>9 (8.7%)</t>
         </is>
       </c>
       <c r="Q61">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>6 (3.1%)</t>
+          <t>11 (5.6%)</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>6 (6.2%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="W61">
@@ -10061,27 +10061,27 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>5 (9.3%)</t>
+          <t>6 (11.1%)</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>10 (3.3%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="AC61">
@@ -10089,17 +10089,17 @@
       </c>
       <c r="AD61" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>8 (5.1%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>8 (5.7%)</t>
+          <t>11 (7.8%)</t>
         </is>
       </c>
       <c r="AG61">
@@ -10124,12 +10124,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Comuna 14</t>
+          <t>Comuna 15</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7 (3.3%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10147,12 +10147,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>20 (12.8%)</t>
+          <t>16 (10.3%)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="J62">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -10170,22 +10170,22 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>3 (4.5%)</t>
+          <t>5 (7.6%)</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2 (28.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>9 (8.7%)</t>
+          <t>7 (6.8%)</t>
         </is>
       </c>
       <c r="Q62">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>6 (7.4%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>11 (5.6%)</t>
+          <t>16 (8.2%)</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>5 (5.2%)</t>
         </is>
       </c>
       <c r="W62">
@@ -10221,27 +10221,27 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>6 (11.1%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>13 (4.3%)</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>4 (8.3%)</t>
         </is>
       </c>
       <c r="AC62">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>7 (4.5%)</t>
+          <t>8 (5.1%)</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>11 (7.8%)</t>
+          <t>7 (5.0%)</t>
         </is>
       </c>
       <c r="AG62">
@@ -10284,17 +10284,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Comuna 15</t>
+          <t>Comuna 16</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13 (5.9%)</t>
+          <t>7 (3.2%)</t>
         </is>
       </c>
       <c r="F63">
@@ -10307,12 +10307,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>16 (10.3%)</t>
+          <t>12 (7.7%)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="J63">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3 (4.2%)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -10330,22 +10330,22 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>7 (5.1%)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>5 (7.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>7 (6.8%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="Q63">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>7 (8.6%)</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>16 (8.2%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>5 (5.2%)</t>
+          <t>3 (3.1%)</t>
         </is>
       </c>
       <c r="W63">
@@ -10381,27 +10381,27 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>13 (4.3%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="AC63">
@@ -10409,12 +10409,12 @@
       </c>
       <c r="AD63" t="inlineStr">
         <is>
-          <t>9 (6.6%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>8 (5.1%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Comuna 16</t>
+          <t>Comuna 17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>8 (3.8%)</t>
+          <t>23 (10.8%)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>7 (3.2%)</t>
+          <t>31 (14.0%)</t>
         </is>
       </c>
       <c r="F64">
@@ -10462,17 +10462,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>31 (34.4%)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>12 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>23 (12.3%)</t>
         </is>
       </c>
       <c r="J64">
@@ -10480,32 +10480,32 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>4 (5.6%)</t>
+          <t>9 (12.5%)</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>7 (5.1%)</t>
+          <t>22 (16.2%)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (13.6%)</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>11 (10.7%)</t>
         </is>
       </c>
       <c r="Q64">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>7 (8.6%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>5 (2.6%)</t>
+          <t>24 (12.2%)</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -10528,12 +10528,12 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (15.5%)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>3 (3.1%)</t>
+          <t>18 (18.6%)</t>
         </is>
       </c>
       <c r="W64">
@@ -10541,17 +10541,17 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>5 (9.3%)</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>43 (14.3%)</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="AC64">
@@ -10569,17 +10569,17 @@
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>5 (3.7%)</t>
+          <t>25 (18.4%)</t>
         </is>
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>21 (13.5%)</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>7 (5.0%)</t>
+          <t>8 (5.7%)</t>
         </is>
       </c>
       <c r="AG64">
@@ -10604,17 +10604,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Comuna 17</t>
+          <t>Comuna 18</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>23 (10.8%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>31 (14.0%)</t>
+          <t>10 (4.5%)</t>
         </is>
       </c>
       <c r="F65">
@@ -10622,17 +10622,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31 (34.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (8.3%)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>23 (12.3%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="J65">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>9 (12.5%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -10650,12 +10650,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>22 (16.2%)</t>
+          <t>10 (7.4%)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>9 (13.6%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>11 (10.7%)</t>
+          <t>5 (4.9%)</t>
         </is>
       </c>
       <c r="Q65">
@@ -10673,12 +10673,12 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>5 (6.2%)</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>24 (12.2%)</t>
+          <t>11 (5.6%)</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -10688,12 +10688,12 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>9 (15.5%)</t>
+          <t>1 (1.7%)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>18 (18.6%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="W65">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>5 (9.3%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>43 (14.3%)</t>
+          <t>16 (5.3%)</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC65">
@@ -10729,12 +10729,12 @@
       </c>
       <c r="AD65" t="inlineStr">
         <is>
-          <t>25 (18.4%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>21 (13.5%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
@@ -10764,17 +10764,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Comuna 18</t>
+          <t>Comuna 19</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>19 (9.0%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10 (4.5%)</t>
+          <t>18 (8.1%)</t>
         </is>
       </c>
       <c r="F66">
@@ -10782,17 +10782,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>17 (18.9%)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>13 (8.3%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>19 (10.2%)</t>
         </is>
       </c>
       <c r="J66">
@@ -10800,22 +10800,22 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>16 (22.2%)</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>10 (7.4%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>4 (6.1%)</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>5 (4.9%)</t>
+          <t>4 (3.9%)</t>
         </is>
       </c>
       <c r="Q66">
@@ -10833,12 +10833,12 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>5 (6.2%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>11 (5.6%)</t>
+          <t>9 (4.6%)</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -10848,12 +10848,12 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>18 (31.0%)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>4 (4.1%)</t>
+          <t>7 (7.2%)</t>
         </is>
       </c>
       <c r="W66">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -10871,17 +10871,17 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>16 (5.3%)</t>
+          <t>30 (10.0%)</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>4 (8.3%)</t>
         </is>
       </c>
       <c r="AC66">
@@ -10889,17 +10889,17 @@
       </c>
       <c r="AD66" t="inlineStr">
         <is>
-          <t>9 (6.6%)</t>
+          <t>13 (9.6%)</t>
         </is>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>15 (9.6%)</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>8 (5.7%)</t>
+          <t>9 (6.4%)</t>
         </is>
       </c>
       <c r="AG66">
@@ -10924,17 +10924,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Comuna 19</t>
+          <t>Comuna 2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>19 (9.0%)</t>
+          <t>23 (10.8%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>18 (8.1%)</t>
+          <t>20 (9.0%)</t>
         </is>
       </c>
       <c r="F67">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>17 (18.9%)</t>
+          <t>28 (31.1%)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>19 (10.2%)</t>
+          <t>14 (7.5%)</t>
         </is>
       </c>
       <c r="J67">
@@ -10960,17 +10960,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16 (22.2%)</t>
+          <t>12 (16.7%)</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>9 (6.6%)</t>
+          <t>11 (8.1%)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>4 (3.9%)</t>
+          <t>10 (9.7%)</t>
         </is>
       </c>
       <c r="Q67">
@@ -10993,27 +10993,27 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>7 (8.6%)</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>9 (4.6%)</t>
+          <t>13 (6.6%)</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>18 (31.0%)</t>
+          <t>9 (15.5%)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>7 (7.2%)</t>
+          <t>13 (13.4%)</t>
         </is>
       </c>
       <c r="W67">
@@ -11021,27 +11021,27 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>4 (7.4%)</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>30 (10.0%)</t>
+          <t>33 (11.0%)</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="AC67">
@@ -11049,17 +11049,17 @@
       </c>
       <c r="AD67" t="inlineStr">
         <is>
-          <t>13 (9.6%)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>15 (9.6%)</t>
+          <t>18 (11.5%)</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>9 (6.4%)</t>
+          <t>13 (9.2%)</t>
         </is>
       </c>
       <c r="AG67">
@@ -11084,17 +11084,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Comuna 2</t>
+          <t>Comuna 20</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>23 (10.8%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>20 (9.0%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F68">
@@ -11102,17 +11102,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>28 (31.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>9 (5.8%)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>14 (7.5%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="J68">
@@ -11120,22 +11120,22 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>12 (16.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>6 (12.2%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>11 (8.1%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>10 (9.7%)</t>
+          <t>4 (3.9%)</t>
         </is>
       </c>
       <c r="Q68">
@@ -11153,27 +11153,27 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>7 (8.6%)</t>
+          <t>5 (6.2%)</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>13 (6.6%)</t>
+          <t>3 (1.5%)</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>9 (15.5%)</t>
+          <t>1 (1.7%)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>13 (13.4%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="W68">
@@ -11181,17 +11181,17 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>4 (7.4%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>33 (11.0%)</t>
+          <t>4 (1.3%)</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -11209,17 +11209,17 @@
       </c>
       <c r="AD68" t="inlineStr">
         <is>
-          <t>12 (8.8%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>18 (11.5%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>13 (9.2%)</t>
+          <t>4 (2.8%)</t>
         </is>
       </c>
       <c r="AG68">
@@ -11244,17 +11244,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Comuna 20</t>
+          <t>Comuna 21</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>8 (3.6%)</t>
+          <t>10 (4.5%)</t>
         </is>
       </c>
       <c r="F69">
@@ -11267,12 +11267,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>9 (5.8%)</t>
+          <t>18 (11.5%)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J69">
@@ -11280,7 +11280,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>4 (6.1%)</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>4 (3.9%)</t>
+          <t>8 (7.8%)</t>
         </is>
       </c>
       <c r="Q69">
@@ -11313,12 +11313,12 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>5 (6.2%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>3 (1.5%)</t>
+          <t>10 (5.1%)</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -11328,12 +11328,12 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>5 (5.2%)</t>
         </is>
       </c>
       <c r="W69">
@@ -11341,27 +11341,27 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>4 (7.4%)</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>4 (1.3%)</t>
+          <t>12 (4.0%)</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC69">
@@ -11369,17 +11369,17 @@
       </c>
       <c r="AD69" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>4 (2.8%)</t>
+          <t>7 (5.0%)</t>
         </is>
       </c>
       <c r="AG69">
@@ -11404,17 +11404,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Comuna 21</t>
+          <t>Comuna 22</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8 (3.8%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10 (4.5%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F70">
@@ -11422,12 +11422,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>12 (13.3%)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>18 (11.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>7 (9.7%)</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -11450,12 +11450,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>8 (7.8%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="Q70">
@@ -11473,12 +11473,12 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>10 (5.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -11488,12 +11488,12 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (13.8%)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>5 (5.2%)</t>
+          <t>3 (3.1%)</t>
         </is>
       </c>
       <c r="W70">
@@ -11501,17 +11501,17 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>4 (7.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>12 (4.0%)</t>
+          <t>8 (2.7%)</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>5 (3.7%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="AE70" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>7 (5.0%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="AG70">
@@ -11564,17 +11564,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Comuna 22</t>
+          <t>Comuna 3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>7 (3.3%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>8 (3.6%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="F71">
@@ -11582,17 +11582,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12 (13.3%)</t>
+          <t>2 (2.2%)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (5.3%)</t>
         </is>
       </c>
       <c r="J71">
@@ -11600,22 +11600,22 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>7 (9.7%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>4 (3.9%)</t>
         </is>
       </c>
       <c r="Q71">
@@ -11633,12 +11633,12 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>2 (2.5%)</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -11648,12 +11648,12 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>8 (13.8%)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>3 (3.1%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="W71">
@@ -11661,12 +11661,12 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="AC71">
@@ -11689,17 +11689,17 @@
       </c>
       <c r="AD71" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>6 (3.8%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>4 (2.8%)</t>
         </is>
       </c>
       <c r="AG71">
@@ -11724,17 +11724,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Comuna 3</t>
+          <t>Comuna 4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7 (3.3%)</t>
+          <t>6 (2.8%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F72">
@@ -11742,17 +11742,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>10 (5.3%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="J72">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>3 (4.5%)</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>4 (3.9%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="Q72">
@@ -11793,12 +11793,12 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>2 (2.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>8 (4.1%)</t>
+          <t>7 (3.6%)</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -11808,12 +11808,12 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2 (3.4%)</t>
+          <t>1 (1.7%)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>3 (3.1%)</t>
         </is>
       </c>
       <c r="W72">
@@ -11821,12 +11821,12 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -11836,12 +11836,12 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC72">
@@ -11849,12 +11849,12 @@
       </c>
       <c r="AD72" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>7 (4.5%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
@@ -11884,17 +11884,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Comuna 4</t>
+          <t>Comuna 5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6 (2.8%)</t>
+          <t>13 (6.1%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>11 (5.0%)</t>
         </is>
       </c>
       <c r="F73">
@@ -11907,12 +11907,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>6 (3.2%)</t>
+          <t>24 (12.8%)</t>
         </is>
       </c>
       <c r="J73">
@@ -11920,32 +11920,32 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>3 (4.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>10 (9.7%)</t>
         </is>
       </c>
       <c r="Q73">
@@ -11953,12 +11953,12 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (4.9%)</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>7 (3.6%)</t>
+          <t>15 (7.7%)</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>3 (3.1%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="W73">
@@ -11981,27 +11981,27 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (7.4%)</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>8 (2.7%)</t>
+          <t>14 (4.7%)</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>4 (8.3%)</t>
         </is>
       </c>
       <c r="AC73">
@@ -12009,17 +12009,17 @@
       </c>
       <c r="AD73" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>13 (8.3%)</t>
         </is>
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>4 (2.8%)</t>
+          <t>6 (4.3%)</t>
         </is>
       </c>
       <c r="AG73">
@@ -12044,12 +12044,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Comuna 5</t>
+          <t>Comuna 6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13 (6.1%)</t>
+          <t>14 (6.6%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -12067,12 +12067,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>16 (10.3%)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>24 (12.8%)</t>
+          <t>9 (4.8%)</t>
         </is>
       </c>
       <c r="J74">
@@ -12085,27 +12085,27 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>10 (9.7%)</t>
+          <t>6 (5.8%)</t>
         </is>
       </c>
       <c r="Q74">
@@ -12113,12 +12113,12 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>4 (4.9%)</t>
+          <t>6 (7.4%)</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>15 (7.7%)</t>
+          <t>10 (5.1%)</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -12128,12 +12128,12 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>4 (4.1%)</t>
+          <t>7 (7.2%)</t>
         </is>
       </c>
       <c r="W74">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>4 (7.4%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -12151,17 +12151,17 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>14 (4.7%)</t>
+          <t>16 (5.3%)</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="AC74">
@@ -12169,17 +12169,17 @@
       </c>
       <c r="AD74" t="inlineStr">
         <is>
-          <t>5 (3.7%)</t>
+          <t>7 (5.1%)</t>
         </is>
       </c>
       <c r="AE74" t="inlineStr">
         <is>
-          <t>13 (8.3%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>6 (4.3%)</t>
+          <t>12 (8.5%)</t>
         </is>
       </c>
       <c r="AG74">
@@ -12204,17 +12204,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Comuna 6</t>
+          <t>Comuna 7</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14 (6.6%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11 (5.0%)</t>
+          <t>7 (3.2%)</t>
         </is>
       </c>
       <c r="F75">
@@ -12227,12 +12227,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>16 (10.3%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>9 (4.8%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="J75">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>3 (4.2%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -12250,12 +12250,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12 (8.8%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>4 (6.1%)</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>6 (5.8%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="Q75">
@@ -12273,12 +12273,12 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>6 (7.4%)</t>
+          <t>5 (6.2%)</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>10 (5.1%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -12288,12 +12288,12 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2 (3.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>7 (7.2%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="W75">
@@ -12301,17 +12301,17 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>16 (5.3%)</t>
+          <t>9 (3.0%)</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC75">
@@ -12329,17 +12329,17 @@
       </c>
       <c r="AD75" t="inlineStr">
         <is>
-          <t>7 (5.1%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
-          <t>6 (3.8%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>12 (8.5%)</t>
+          <t>4 (2.8%)</t>
         </is>
       </c>
       <c r="AG75">
@@ -12364,12 +12364,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Comuna 7</t>
+          <t>Comuna 8</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>6 (2.8%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -12387,12 +12387,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>12 (6.4%)</t>
         </is>
       </c>
       <c r="J76">
@@ -12405,27 +12405,27 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>3 (2.9%)</t>
         </is>
       </c>
       <c r="Q76">
@@ -12433,12 +12433,12 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>5 (6.2%)</t>
+          <t>2 (2.5%)</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>5 (2.6%)</t>
+          <t>7 (3.6%)</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="W76">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>9 (3.0%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -12489,12 +12489,12 @@
       </c>
       <c r="AD76" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="AE76" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="AF76" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Comuna 8</t>
+          <t>Comuna 9</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6 (2.8%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7 (3.2%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F77">
@@ -12547,12 +12547,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>12 (6.4%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="J77">
@@ -12560,32 +12560,32 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>3 (2.9%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="Q77">
@@ -12593,12 +12593,12 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>2 (2.5%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>7 (3.6%)</t>
+          <t>6 (3.1%)</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -12608,12 +12608,12 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (5.2%)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>4 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W77">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>8 (2.7%)</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC77">
@@ -12649,12 +12649,12 @@
       </c>
       <c r="AD77" t="inlineStr">
         <is>
-          <t>6 (4.4%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
@@ -12674,68 +12674,68 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p19comuna</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Comuna donde vive</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Comuna 9</t>
+          <t>Compras y trámites</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>22 (10.4%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>33 (14.9%)</t>
         </is>
       </c>
       <c r="F78">
-        <v>0.9536</v>
+        <v>0.0164</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>12 (13.3%)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>17 (10.9%)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>26 (13.9%)</t>
         </is>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>0.1836</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>11 (15.3%)</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>13 (9.6%)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>17 (25.8%)</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12745,20 +12745,20 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>10 (9.7%)</t>
         </is>
       </c>
       <c r="Q78">
-        <v>0.0009</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>10 (12.3%)</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>6 (3.1%)</t>
+          <t>28 (14.3%)</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -12768,20 +12768,20 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>3 (5.2%)</t>
+          <t>8 (13.8%)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (9.3%)</t>
         </is>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>0.0423</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>13 (24.1%)</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -12791,39 +12791,39 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>8 (2.7%)</t>
+          <t>24 (8.0%)</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (23.1%)</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>15 (31.2%)</t>
         </is>
       </c>
       <c r="AC78">
-        <v>0.0359</v>
+        <v>0</v>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>15 (9.6%)</t>
         </is>
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>4 (2.8%)</t>
+          <t>28 (19.9%)</t>
         </is>
       </c>
       <c r="AG78">
-        <v>0.2276</v>
+        <v>0</v>
       </c>
       <c r="AH78" t="inlineStr">
         <is>
@@ -12844,17 +12844,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Compras y trámites</t>
+          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>22 (10.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>33 (14.9%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F79">
@@ -12862,17 +12862,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12 (13.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>17 (10.9%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>26 (13.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="J79">
@@ -12880,22 +12880,22 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>11 (15.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>13 (9.6%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>17 (25.8%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12905,7 +12905,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>10 (9.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Q79">
@@ -12913,12 +12913,12 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>10 (12.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>28 (14.3%)</t>
+          <t>3 (1.5%)</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -12928,12 +12928,12 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>8 (13.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>9 (9.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W79">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>13 (24.1%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -12951,17 +12951,17 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>24 (8.0%)</t>
+          <t>1 (0.3%)</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>3 (23.1%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>15 (31.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC79">
@@ -12969,17 +12969,17 @@
       </c>
       <c r="AD79" t="inlineStr">
         <is>
-          <t>12 (8.8%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="AE79" t="inlineStr">
         <is>
-          <t>15 (9.6%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>28 (19.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AG79">
@@ -13004,7 +13004,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -13014,7 +13014,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F80">
@@ -13027,7 +13027,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -13050,12 +13050,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -13073,12 +13073,12 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>3 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -13111,12 +13111,12 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>1 (0.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
@@ -13129,7 +13129,7 @@
       </c>
       <c r="AD80" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AE80" t="inlineStr">
@@ -13164,17 +13164,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (4.2%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>13 (5.9%)</t>
         </is>
       </c>
       <c r="F81">
@@ -13182,17 +13182,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (5.6%)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>11 (5.9%)</t>
         </is>
       </c>
       <c r="J81">
@@ -13205,17 +13205,17 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (4.5%)</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (9.7%)</t>
         </is>
       </c>
       <c r="Q81">
@@ -13233,12 +13233,12 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (6.6%)</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -13248,12 +13248,12 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.7%)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (8.2%)</t>
         </is>
       </c>
       <c r="W81">
@@ -13261,17 +13261,17 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (76.5%)</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (3.0%)</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -13289,12 +13289,12 @@
       </c>
       <c r="AD81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>17 (12.5%)</t>
         </is>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="AF81" t="inlineStr">
@@ -13324,17 +13324,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9 (4.2%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13 (5.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F82">
@@ -13342,17 +13342,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5 (5.6%)</t>
+          <t>2 (2.2%)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>6 (3.8%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>11 (5.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="J82">
@@ -13370,12 +13370,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3 (4.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>10 (9.7%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="Q82">
@@ -13393,12 +13393,12 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>13 (6.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -13408,12 +13408,12 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>8 (8.2%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="W82">
@@ -13421,17 +13421,17 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>13 (76.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>9 (3.0%)</t>
+          <t>3 (1.0%)</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -13449,17 +13449,17 @@
       </c>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>17 (12.5%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="AG82">
@@ -13484,17 +13484,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>36 (17.0%)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>58 (26.2%)</t>
         </is>
       </c>
       <c r="F83">
@@ -13502,17 +13502,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>14 (15.6%)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>47 (30.1%)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>33 (17.6%)</t>
         </is>
       </c>
       <c r="J83">
@@ -13520,32 +13520,32 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (12.5%)</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>14 (28.6%)</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>15 (11.0%)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>20 (30.3%)</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>35 (34.0%)</t>
         </is>
       </c>
       <c r="Q83">
@@ -13553,12 +13553,12 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>29 (35.8%)</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>39 (19.9%)</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -13568,12 +13568,12 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (10.3%)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>20 (20.6%)</t>
         </is>
       </c>
       <c r="W83">
@@ -13581,27 +13581,27 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>27 (50.0%)</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>3 (1.0%)</t>
+          <t>35 (11.6%)</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (38.5%)</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (52.1%)</t>
         </is>
       </c>
       <c r="AC83">
@@ -13609,17 +13609,17 @@
       </c>
       <c r="AD83" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>13 (9.6%)</t>
         </is>
       </c>
       <c r="AE83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>28 (17.9%)</t>
         </is>
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>3 (2.1%)</t>
+          <t>53 (37.6%)</t>
         </is>
       </c>
       <c r="AG83">
@@ -13644,17 +13644,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>36 (17.0%)</t>
+          <t>136 (64.2%)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>58 (26.2%)</t>
+          <t>107 (48.4%)</t>
         </is>
       </c>
       <c r="F84">
@@ -13662,17 +13662,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14 (15.6%)</t>
+          <t>57 (63.3%)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>47 (30.1%)</t>
+          <t>78 (50.0%)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>33 (17.6%)</t>
+          <t>108 (57.8%)</t>
         </is>
       </c>
       <c r="J84">
@@ -13680,32 +13680,32 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>9 (12.5%)</t>
+          <t>50 (69.4%)</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>14 (28.6%)</t>
+          <t>29 (59.2%)</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>15 (11.0%)</t>
+          <t>92 (67.6%)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>20 (30.3%)</t>
+          <t>23 (34.8%)</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>6 (85.7%)</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>35 (34.0%)</t>
+          <t>43 (41.7%)</t>
         </is>
       </c>
       <c r="Q84">
@@ -13713,27 +13713,27 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>29 (35.8%)</t>
+          <t>35 (43.2%)</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>39 (19.9%)</t>
+          <t>108 (55.1%)</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>6 (10.3%)</t>
+          <t>41 (70.7%)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>20 (20.6%)</t>
+          <t>58 (59.8%)</t>
         </is>
       </c>
       <c r="W84">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>27 (50.0%)</t>
+          <t>8 (14.8%)</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -13751,17 +13751,17 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>35 (11.6%)</t>
+          <t>224 (74.4%)</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>5 (38.5%)</t>
+          <t>4 (30.8%)</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>25 (52.1%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="AC84">
@@ -13769,17 +13769,17 @@
       </c>
       <c r="AD84" t="inlineStr">
         <is>
-          <t>13 (9.6%)</t>
+          <t>88 (64.7%)</t>
         </is>
       </c>
       <c r="AE84" t="inlineStr">
         <is>
-          <t>28 (17.9%)</t>
+          <t>103 (66.0%)</t>
         </is>
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>53 (37.6%)</t>
+          <t>52 (36.9%)</t>
         </is>
       </c>
       <c r="AG84">
@@ -13804,17 +13804,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>136 (64.2%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>107 (48.4%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F85">
@@ -13822,17 +13822,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>57 (63.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>78 (50.0%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>108 (57.8%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="J85">
@@ -13840,32 +13840,32 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>50 (69.4%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>29 (59.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>92 (67.6%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>23 (34.8%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>6 (85.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>43 (41.7%)</t>
+          <t>3 (2.9%)</t>
         </is>
       </c>
       <c r="Q85">
@@ -13873,27 +13873,27 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>35 (43.2%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>108 (55.1%)</t>
+          <t>4 (2.0%)</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>41 (70.7%)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>58 (59.8%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="W85">
@@ -13901,27 +13901,27 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>8 (14.8%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>224 (74.4%)</t>
+          <t>5 (1.7%)</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>4 (30.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="AC85">
@@ -13929,17 +13929,17 @@
       </c>
       <c r="AD85" t="inlineStr">
         <is>
-          <t>88 (64.7%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t>103 (66.0%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>52 (36.9%)</t>
+          <t>5 (3.5%)</t>
         </is>
       </c>
       <c r="AG85">
@@ -13954,134 +13954,129 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>p23_agregado</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Visitas sociales</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>46.0 (31.0–60.0)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>44.0 (32.0–56.0)</t>
         </is>
       </c>
       <c r="F86">
-        <v>0.0164</v>
+        <v>0.4533</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>41.5 (31.0–53.8)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>50.0 (31.8–60.0)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>6 (3.2%)</t>
+          <t>43.0 (32.0–59.5)</t>
         </is>
       </c>
       <c r="J86">
-        <v>0.1836</v>
+        <v>0.1986</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>43.0 (34.8–56.0)</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>60.0 (39.0–66.0)</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>37.0 (28.0–48.0)</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>52.0 (36.8–63.8)</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>55.0 (53.5–63.5)</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>3 (2.9%)</t>
+          <t>50.0 (32.0–60.5)</t>
         </is>
       </c>
       <c r="Q86">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>3 (3.7%)</t>
+          <t>60.0 (53.0–68.0)</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>4 (2.0%)</t>
+          <t>42.0 (28.0–55.2)</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>62.0 (62.0–62.0)</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>2 (3.4%)</t>
+          <t>39.0 (29.2–50.0)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>39.0 (31.0–48.0)</t>
         </is>
       </c>
       <c r="W86">
-        <v>0.0423</v>
+        <v>0</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>60.0 (50.2–70.0)</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21.0 (19.0–27.0)</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>5 (1.7%)</t>
+          <t>41.0 (31.0–54.0)</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>55.0 (36.0–63.0)</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>57.0 (43.8–65.0)</t>
         </is>
       </c>
       <c r="AC86">
@@ -14089,17 +14084,17 @@
       </c>
       <c r="AD86" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>26.0 (21.0–31.0)</t>
         </is>
       </c>
       <c r="AE86" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>45.0 (39.0–50.0)</t>
         </is>
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>5 (3.5%)</t>
+          <t>63.0 (59.0–70.0)</t>
         </is>
       </c>
       <c r="AG86">
@@ -14114,151 +14109,146 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>46.0 (31.0–60.0)</t>
+          <t>30.0 (15.0–45.0)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>44.0 (32.0–56.0)</t>
+          <t>30.0 (15.0–45.0)</t>
         </is>
       </c>
       <c r="F87">
-        <v>0.4533</v>
+        <v>0.7969000000000001</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>41.5 (31.0–53.8)</t>
+          <t>30.0 (20.0–60.0)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>50.0 (31.8–60.0)</t>
+          <t>25.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>43.0 (32.0–59.5)</t>
+          <t>30.0 (15.0–60.0)</t>
         </is>
       </c>
       <c r="J87">
-        <v>0.1986</v>
+        <v>0.0061</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>43.0 (34.8–56.0)</t>
+          <t>30.0 (25.0–60.0)</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>60.0 (39.0–66.0)</t>
+          <t>30.0 (20.0–60.0)</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>37.0 (28.0–48.0)</t>
+          <t>20.0 (15.0–36.2)</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>52.0 (36.8–63.8)</t>
+          <t>22.5 (15.0–30.0)</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>55.0 (53.5–63.5)</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>50.0 (32.0–60.5)</t>
+          <t>35.0 (30.0–43.8)</t>
         </is>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>60.0 (53.0–68.0)</t>
+          <t>30.0 (15.0–60.0)</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>42.0 (28.0–55.2)</t>
+          <t>25.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>62.0 (62.0–62.0)</t>
+          <t>15.0 (15.0–15.0)</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>39.0 (29.2–50.0)</t>
+          <t>30.0 (20.0–60.0)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>39.0 (31.0–48.0)</t>
+          <t>30.0 (20.0–60.0)</t>
         </is>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>0.0649</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>60.0 (50.2–70.0)</t>
+          <t>30.0 (16.2–60.0)</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>21.0 (19.0–27.0)</t>
+          <t>40.0 (30.0–55.0)</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>41.0 (31.0–54.0)</t>
+          <t>30.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>55.0 (36.0–63.0)</t>
+          <t>20.0 (17.5–50.0)</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>57.0 (43.8–65.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="AC87">
-        <v>0</v>
+        <v>0.4182</v>
       </c>
       <c r="AD87" t="inlineStr">
         <is>
-          <t>26.0 (21.0–31.0)</t>
+          <t>25.0 (15.0–32.5)</t>
         </is>
       </c>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>45.0 (39.0–50.0)</t>
+          <t>30.0 (15.0–50.0)</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>63.0 (59.0–70.0)</t>
+          <t>30.0 (20.0–60.0)</t>
         </is>
       </c>
       <c r="AG87">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
@@ -14269,146 +14259,126 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p18_p1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Minutos caminando hasta el modo de transporte</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–45.0)</t>
+          <t>10.0 (5.0–12.0)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–45.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="F88">
-        <v>0.7969000000000001</v>
+        <v>0.4815</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30.0 (20.0–60.0)</t>
+          <t>10.0 (8.5–15.0)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>25.0 (15.0–30.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="J88">
-        <v>0.0061</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>30.0 (25.0–60.0)</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>30.0 (20.0–60.0)</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>20.0 (15.0–36.2)</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>22.5 (15.0–30.0)</t>
-        </is>
+        <v>0.2439</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>35.0 (30.0–43.8)</t>
+          <t>8.5 (1.8–15.0)</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="Q88">
-        <v>0.0003</v>
+        <v>0.4885</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–60.0)</t>
+          <t>10.0 (5.2–15.0)</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>25.0 (15.0–40.0)</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>15.0 (15.0–15.0)</t>
+          <t>10.0 (5.0–12.0)</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>30.0 (20.0–60.0)</t>
+          <t>11.0 (8.8–13.5)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>30.0 (20.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="W88">
-        <v>0.0649</v>
+        <v>0.5556</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>30.0 (16.2–60.0)</t>
+          <t>10.0 (9.0–15.0)</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>40.0 (30.0–55.0)</t>
+          <t>9.0 (5.0–10.0)</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>20.0 (17.5–50.0)</t>
+          <t>3.0 (2.0–4.0)</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>10.0 (5.0–14.2)</t>
         </is>
       </c>
       <c r="AC88">
-        <v>0.4182</v>
+        <v>0.2134</v>
       </c>
       <c r="AD88" t="inlineStr">
         <is>
-          <t>25.0 (15.0–32.5)</t>
+          <t>8.0 (5.0–13.5)</t>
         </is>
       </c>
       <c r="AE88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–50.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>30.0 (20.0–60.0)</t>
+          <t>10.0 (6.0–15.0)</t>
         </is>
       </c>
       <c r="AG88">
-        <v>0.116</v>
+        <v>0.5194</v>
       </c>
       <c r="AH88" t="inlineStr">
         <is>
@@ -14419,126 +14389,126 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p18_p2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Minutos de espera del transporte</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–12.0)</t>
+          <t>20.0 (10.0–28.8)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="F89">
-        <v>0.4815</v>
+        <v>0.4531</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10.0 (8.5–15.0)</t>
+          <t>15.0 (10.0–27.5)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (10.0–30.0)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="J89">
-        <v>0.2439</v>
+        <v>0.4963</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>8.5 (1.8–15.0)</t>
+          <t>30.0 (15.2–45.0)</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (10.0–30.0)</t>
         </is>
       </c>
       <c r="Q89">
-        <v>0.4885</v>
+        <v>0.5841</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>10.0 (5.2–15.0)</t>
+          <t>20.0 (11.2–30.0)</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–12.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>11.0 (8.8–13.5)</t>
+          <t>10.0 (8.8–15.0)</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (13.8–20.0)</t>
         </is>
       </c>
       <c r="W89">
-        <v>0.5556</v>
+        <v>0.4151</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>10.0 (9.0–15.0)</t>
+          <t>20.0 (17.5–25.0)</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>9.0 (5.0–10.0)</t>
+          <t>22.5 (8.8–25.0)</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (10.0–30.0)</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>12.5 (8.8–16.2)</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–14.2)</t>
+          <t>25.0 (11.2–30.0)</t>
         </is>
       </c>
       <c r="AC89">
-        <v>0.2134</v>
+        <v>0.8149</v>
       </c>
       <c r="AD89" t="inlineStr">
         <is>
-          <t>8.0 (5.0–13.5)</t>
+          <t>20.0 (10.0–22.5)</t>
         </is>
       </c>
       <c r="AE89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>15.0 (10.0–30.0)</t>
         </is>
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>10.0 (6.0–15.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="AG89">
-        <v>0.5194</v>
+        <v>0.1481</v>
       </c>
       <c r="AH89" t="inlineStr">
         <is>
@@ -14549,126 +14519,126 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p18_p3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20.0 (10.0–28.8)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="F90">
-        <v>0.4531</v>
+        <v>0.965</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15.0 (10.0–27.5)</t>
+          <t>35.0 (21.2–82.5)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>20.0 (10.0–30.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="J90">
-        <v>0.4963</v>
+        <v>0.9789</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>30.0 (15.2–45.0)</t>
+          <t>40.0 (33.8–45.0)</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>20.0 (10.0–30.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="Q90">
-        <v>0.5841</v>
+        <v>0.6075</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>20.0 (11.2–30.0)</t>
+          <t>42.5 (30.0–60.0)</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>45.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>10.0 (8.8–15.0)</t>
+          <t>20.0 (17.5–26.2)</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>20.0 (13.8–20.0)</t>
+          <t>35.0 (20.0–48.8)</t>
         </is>
       </c>
       <c r="W90">
-        <v>0.4151</v>
+        <v>0.1057</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>20.0 (17.5–25.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>22.5 (8.8–25.0)</t>
+          <t>40.0 (32.5–46.2)</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>20.0 (10.0–30.0)</t>
+          <t>45.0 (27.5–60.0)</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>12.5 (8.8–16.2)</t>
+          <t>45.0 (37.5–52.5)</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>25.0 (11.2–30.0)</t>
+          <t>30.0 (25.0–45.0)</t>
         </is>
       </c>
       <c r="AC90">
-        <v>0.8149</v>
+        <v>0.6362</v>
       </c>
       <c r="AD90" t="inlineStr">
         <is>
-          <t>20.0 (10.0–22.5)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="AE90" t="inlineStr">
         <is>
-          <t>15.0 (10.0–30.0)</t>
+          <t>60.0 (20.0–90.0)</t>
         </is>
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="AG90">
-        <v>0.1481</v>
+        <v>0.7413</v>
       </c>
       <c r="AH90" t="inlineStr">
         <is>
@@ -14679,126 +14649,126 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p18_p4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>Minutos caminando después del descenso</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–14.2)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="F91">
-        <v>0.965</v>
+        <v>0.5739</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>35.0 (21.2–82.5)</t>
+          <t>5.0 (5.0–10.0)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="J91">
-        <v>0.9789</v>
+        <v>0.309</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>40.0 (33.8–45.0)</t>
+          <t>2.5 (0.8–5.5)</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="Q91">
-        <v>0.6075</v>
+        <v>0.0201</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>42.5 (30.0–60.0)</t>
+          <t>15.0 (5.0–18.8)</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>45.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>20.0 (17.5–26.2)</t>
+          <t>10.0 (8.8–10.0)</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>35.0 (20.0–48.8)</t>
+          <t>5.0 (5.0–10.0)</t>
         </is>
       </c>
       <c r="W91">
-        <v>0.1057</v>
+        <v>0.118</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (7.5–17.5)</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>40.0 (32.5–46.2)</t>
+          <t>7.5 (4.2–16.2)</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>45.0 (27.5–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>45.0 (37.5–52.5)</t>
+          <t>5.5 (3.2–7.8)</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>30.0 (25.0–45.0)</t>
+          <t>5.0 (5.0–10.0)</t>
         </is>
       </c>
       <c r="AC91">
-        <v>0.6362</v>
+        <v>0.3206</v>
       </c>
       <c r="AD91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="AE91" t="inlineStr">
         <is>
-          <t>60.0 (20.0–90.0)</t>
+          <t>10.0 (5.0–10.0)</t>
         </is>
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="AG91">
-        <v>0.7413</v>
+        <v>0.3068</v>
       </c>
       <c r="AH91" t="inlineStr">
         <is>
@@ -14809,240 +14779,110 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18_c1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
+          <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–14.2)</t>
+          <t>15.0 (6.2–72.5)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>17.5 (15.0–27.5)</t>
         </is>
       </c>
       <c r="F92">
-        <v>0.5739</v>
+        <v>0.8694</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>52.5 (33.8–71.2)</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>17.5 (15.0–72.5)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>15.0 (4.2–22.5)</t>
         </is>
       </c>
       <c r="J92">
-        <v>0.309</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>2.5 (0.8–5.5)</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>10.0 (5.0–15.0)</t>
-        </is>
-      </c>
-      <c r="Q92">
-        <v>0.0201</v>
+        <v>0.5782</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>17.5 (10.0–45.0)</t>
+        </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>15.0 (5.0–18.8)</t>
+          <t>17.5 (11.8–37.5)</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (10.0–90.0)</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>10.0 (8.8–10.0)</t>
+          <t>15.0 (15.0–15.0)</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>11.0 (6.5–15.5)</t>
         </is>
       </c>
       <c r="W92">
-        <v>0.118</v>
+        <v>0.7603</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>10.0 (7.5–17.5)</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>7.5 (4.2–16.2)</t>
+          <t>90.0 (30.0–90.0)</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
-        </is>
-      </c>
-      <c r="AA92" t="inlineStr">
-        <is>
-          <t>5.5 (3.2–7.8)</t>
+          <t>15.0 (10.0–20.0)</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>15.0 (15.0–15.0)</t>
         </is>
       </c>
       <c r="AC92">
-        <v>0.3206</v>
+        <v>0.3286</v>
       </c>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>17.5 (7.5–20.0)</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–10.0)</t>
+          <t>90.0 (55.0–105.0)</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>15.0 (10.0–22.5)</t>
         </is>
       </c>
       <c r="AG92">
-        <v>0.3068</v>
+        <v>0.1419</v>
       </c>
       <c r="AH92" t="inlineStr">
-        <is>
-          <t>Módulo 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>p18_c1</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Minutos de la caminata a su destino</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>15.0 (6.2–72.5)</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>17.5 (15.0–27.5)</t>
-        </is>
-      </c>
-      <c r="F93">
-        <v>0.8694</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>52.5 (33.8–71.2)</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>17.5 (15.0–72.5)</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>15.0 (4.2–22.5)</t>
-        </is>
-      </c>
-      <c r="J93">
-        <v>0.5782</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>17.5 (10.0–45.0)</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>17.5 (11.8–37.5)</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>20.0 (10.0–90.0)</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>15.0 (15.0–15.0)</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>11.0 (6.5–15.5)</t>
-        </is>
-      </c>
-      <c r="W93">
-        <v>0.7603</v>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>90.0 (30.0–90.0)</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>15.0 (10.0–20.0)</t>
-        </is>
-      </c>
-      <c r="AB93" t="inlineStr">
-        <is>
-          <t>15.0 (15.0–15.0)</t>
-        </is>
-      </c>
-      <c r="AC93">
-        <v>0.3286</v>
-      </c>
-      <c r="AD93" t="inlineStr">
-        <is>
-          <t>17.5 (7.5–20.0)</t>
-        </is>
-      </c>
-      <c r="AE93" t="inlineStr">
-        <is>
-          <t>90.0 (55.0–105.0)</t>
-        </is>
-      </c>
-      <c r="AF93" t="inlineStr">
-        <is>
-          <t>15.0 (10.0–22.5)</t>
-        </is>
-      </c>
-      <c r="AG93">
-        <v>0.1419</v>
-      </c>
-      <c r="AH93" t="inlineStr">
         <is>
           <t>Módulo 2</t>
         </is>
